--- a/Datasets/Cleaned Data Sets/Latitude_Longitude_cleaned.xlsx
+++ b/Datasets/Cleaned Data Sets/Latitude_Longitude_cleaned.xlsx
@@ -1,21 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/Cleaned Data Sets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CC72FDCE8F79A8D366075C52F345EAF18D38E94B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C0D6138-0C48-4D26-B59E-B21D43517474}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>lat_z</t>
+  </si>
+  <si>
+    <t>lng_z</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA A.M.</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>BOGOTÁ D.C.</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>BUCARAMANGA A.M.</t>
+  </si>
+  <si>
+    <t>CARTAGENA</t>
+  </si>
+  <si>
+    <t>CÚCUTA A.M.</t>
+  </si>
+  <si>
+    <t>IBAGUÉ</t>
+  </si>
+  <si>
+    <t>MANIZALES A.M.</t>
+  </si>
+  <si>
+    <t>MEDELLÍN A.M.</t>
+  </si>
+  <si>
+    <t>MONTERÍA</t>
+  </si>
+  <si>
+    <t>PASTO</t>
+  </si>
+  <si>
+    <t>PEREIRA A.M.</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>CALI  A.M.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +137,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,146 +434,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lng</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>capital</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lat_z</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lng_z</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA A.M.</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>10.9833</v>
       </c>
       <c r="C2">
-        <v>-74.8019</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-74.801900000000003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>1.609487272632317</v>
+        <v>1.6094872726323171</v>
       </c>
       <c r="F2">
-        <v>-0.09595302175204379</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BOGOTÁ D.C.</t>
-        </is>
+        <v>-9.5953021752043788E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>4.7111</v>
+        <v>4.7111000000000001</v>
       </c>
       <c r="C3">
-        <v>-74.0722</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
+        <v>-74.072199999999995</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>-0.3974201127951731</v>
+        <v>-0.39742011279517309</v>
       </c>
       <c r="F3">
-        <v>0.2504816414798104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BUCARAMANGA A.M.</t>
-        </is>
+        <v>0.25048164147981039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>7.1333</v>
+        <v>7.1333000000000002</v>
       </c>
       <c r="C4">
         <v>-73</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0.377607958532665</v>
+        <v>0.37760795853266499</v>
       </c>
       <c r="F4">
-        <v>0.7595226801493846</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CALI A.M.</t>
-        </is>
+        <v>0.75952268014938462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>3.4206</v>
+        <v>3.4205999999999999</v>
       </c>
       <c r="C5">
-        <v>-76.5222</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-76.522199999999998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>-0.8103396595083162</v>
+        <v>-0.81033965950831621</v>
       </c>
       <c r="F5">
-        <v>-0.9126880514323922</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CARTAGENA</t>
-        </is>
+        <v>-0.91268805143239218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10.4</v>
@@ -497,47 +553,39 @@
       <c r="C6">
         <v>-75.5</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1.422849557329894</v>
       </c>
       <c r="F6">
-        <v>-0.4273851697610249</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CÚCUTA A.M.</t>
-        </is>
+        <v>-0.42738516976102492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>7.8942</v>
+        <v>7.8941999999999997</v>
       </c>
       <c r="C7">
-        <v>-72.5039</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-72.503900000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0.6210721066101778</v>
+        <v>0.62107210661017775</v>
       </c>
       <c r="F7">
-        <v>0.9950526738856055</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>IBAGUÉ</t>
-        </is>
+        <v>0.99505267388560548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>4.4333</v>
@@ -545,160 +593,134 @@
       <c r="C8">
         <v>-75.2333</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-0.4863074046021558</v>
+        <v>-0.48630740460215582</v>
       </c>
       <c r="F8">
-        <v>-0.3007658403325824</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MANIZALES A.M.</t>
-        </is>
+        <v>-0.30076584033258241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C9">
         <v>-75.55</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-0.2729843036384578</v>
+        <v>-0.27298430363845783</v>
       </c>
       <c r="F9">
-        <v>-0.4511233267592318</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MEDELLÍN A.M.</t>
-        </is>
+        <v>-0.45112332675923178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>6.2308</v>
+        <v>6.2308000000000003</v>
       </c>
       <c r="C10">
-        <v>-75.59059999999999</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-75.590599999999995</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>0.08883624918852587</v>
+        <v>8.8836249188525868E-2</v>
       </c>
       <c r="F10">
-        <v>-0.4703987102417758</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MONTERÍA</t>
-        </is>
+        <v>-0.47039871024177582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
         <v>8.75</v>
       </c>
       <c r="C11">
-        <v>-75.88330000000001</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-75.883300000000006</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>0.8949012798586148</v>
+        <v>0.89490127985861478</v>
       </c>
       <c r="F11">
-        <v>-0.6093618813092916</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PASTO</t>
-        </is>
+        <v>-0.60936188130929159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1.2078</v>
       </c>
       <c r="C12">
-        <v>-77.27719999999999</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-77.277199999999993</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-1.518366294895254</v>
+        <v>-1.5183662948952541</v>
       </c>
       <c r="F12">
-        <v>-1.271134222105334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PEREIRA A.M.</t>
-        </is>
+        <v>-1.2711342221053341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>4.8143</v>
+        <v>4.8143000000000002</v>
       </c>
       <c r="C13">
-        <v>-75.69459999999999</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-75.694599999999994</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
       <c r="E13">
         <v>-0.3643993478042421</v>
       </c>
       <c r="F13">
-        <v>-0.5197740767980484</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>VILLAVICENCIO</t>
-        </is>
+        <v>-0.51977407679804843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C14">
-        <v>-73.63330000000001</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+        <v>-73.633300000000006</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>-0.5769545240007092</v>
+        <v>-0.57695452400070923</v>
       </c>
       <c r="F14">
-        <v>0.458855183610077</v>
+        <v>0.45885518361007699</v>
       </c>
     </row>
   </sheetData>
